--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/TransactionActivity.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/TransactionActivity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-42920\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-71620\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -437,10 +437,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,42 +516,40 @@
       <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K2" s="1">
         <v>100</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L2" s="1">
         <v>900</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
